--- a/data/processed/rhyolitic_glasses/kraw_summaries_all.xlsx
+++ b/data/processed/rhyolitic_glasses/kraw_summaries_all.xlsx
@@ -531,7 +531,7 @@
         <v>4.07</v>
       </c>
       <c r="E2">
-        <v>24.6</v>
+        <v>6.14</v>
       </c>
       <c r="F2">
         <v>5.79</v>
@@ -543,19 +543,19 @@
         <v>6.96</v>
       </c>
       <c r="I2">
-        <v>24.6</v>
+        <v>6.14</v>
       </c>
       <c r="J2">
         <v>5.78</v>
       </c>
       <c r="K2">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="L2">
         <v>6.96</v>
       </c>
       <c r="M2">
-        <v>24.23</v>
+        <v>4.52</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -575,7 +575,7 @@
         <v>3.8</v>
       </c>
       <c r="E3">
-        <v>24.66</v>
+        <v>6.35</v>
       </c>
       <c r="F3">
         <v>5.48</v>
@@ -584,22 +584,22 @@
         <v>5.22</v>
       </c>
       <c r="H3">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="I3">
-        <v>24.66</v>
+        <v>6.35</v>
       </c>
       <c r="J3">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="K3">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="L3">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="M3">
-        <v>24.21</v>
+        <v>4.28</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -619,7 +619,7 @@
         <v>3.66</v>
       </c>
       <c r="E4">
-        <v>24.7</v>
+        <v>6.51</v>
       </c>
       <c r="F4">
         <v>5.32</v>
@@ -628,22 +628,22 @@
         <v>5.41</v>
       </c>
       <c r="H4">
-        <v>6.42</v>
+        <v>6.4</v>
       </c>
       <c r="I4">
-        <v>24.7</v>
+        <v>6.51</v>
       </c>
       <c r="J4">
-        <v>5.33</v>
+        <v>5.31</v>
       </c>
       <c r="K4">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
       <c r="L4">
-        <v>6.42</v>
+        <v>6.4</v>
       </c>
       <c r="M4">
-        <v>24.25</v>
+        <v>4.63</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -663,7 +663,7 @@
         <v>3.42</v>
       </c>
       <c r="E5">
-        <v>24.76</v>
+        <v>6.73</v>
       </c>
       <c r="F5">
         <v>5.07</v>
@@ -672,22 +672,22 @@
         <v>5.68</v>
       </c>
       <c r="H5">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="I5">
-        <v>24.76</v>
+        <v>6.73</v>
       </c>
       <c r="J5">
-        <v>5.06</v>
+        <v>5.08</v>
       </c>
       <c r="K5">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="L5">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="M5">
-        <v>24.23</v>
+        <v>4.62</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -707,7 +707,7 @@
         <v>3.82</v>
       </c>
       <c r="E6">
-        <v>24.64</v>
+        <v>6.3</v>
       </c>
       <c r="F6">
         <v>5.44</v>
@@ -716,22 +716,22 @@
         <v>5.16</v>
       </c>
       <c r="H6">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="I6">
-        <v>24.64</v>
+        <v>6.3</v>
       </c>
       <c r="J6">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="K6">
         <v>2.48</v>
       </c>
       <c r="L6">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="M6">
-        <v>24.22</v>
+        <v>4.38</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -751,7 +751,7 @@
         <v>3.98</v>
       </c>
       <c r="E7">
-        <v>24.6</v>
+        <v>6.14</v>
       </c>
       <c r="F7">
         <v>5.54</v>
@@ -763,19 +763,19 @@
         <v>6.66</v>
       </c>
       <c r="I7">
-        <v>24.6</v>
+        <v>6.14</v>
       </c>
       <c r="J7">
         <v>5.53</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="L7">
         <v>6.66</v>
       </c>
       <c r="M7">
-        <v>24.24</v>
+        <v>4.27</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -795,7 +795,7 @@
         <v>4.08</v>
       </c>
       <c r="E8">
-        <v>24.58</v>
+        <v>6.07</v>
       </c>
       <c r="F8">
         <v>5.58</v>
@@ -804,22 +804,22 @@
         <v>4.87</v>
       </c>
       <c r="H8">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
       <c r="I8">
-        <v>24.58</v>
+        <v>6.07</v>
       </c>
       <c r="J8">
-        <v>5.6</v>
+        <v>5.59</v>
       </c>
       <c r="K8">
-        <v>2.08</v>
+        <v>2.63</v>
       </c>
       <c r="L8">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
       <c r="M8">
-        <v>24.19</v>
+        <v>4.47</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
@@ -839,7 +839,7 @@
         <v>4.07</v>
       </c>
       <c r="E9">
-        <v>24.58</v>
+        <v>6.05</v>
       </c>
       <c r="F9">
         <v>5.62</v>
@@ -848,22 +848,22 @@
         <v>4.85</v>
       </c>
       <c r="H9">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="I9">
-        <v>24.58</v>
+        <v>6.05</v>
       </c>
       <c r="J9">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="K9">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="L9">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="M9">
-        <v>24.21</v>
+        <v>4.36</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -883,7 +883,7 @@
         <v>2.05</v>
       </c>
       <c r="E10">
-        <v>25.73</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F10">
         <v>3.81</v>
@@ -892,22 +892,22 @@
         <v>9.029999999999999</v>
       </c>
       <c r="H10">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="I10">
-        <v>25.73</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="J10">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
       <c r="K10">
-        <v>3.28</v>
+        <v>2.88</v>
       </c>
       <c r="L10">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="M10">
-        <v>24.32</v>
+        <v>4.62</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -927,7 +927,7 @@
         <v>1.92</v>
       </c>
       <c r="E11">
-        <v>26.02</v>
+        <v>10.47</v>
       </c>
       <c r="F11">
         <v>3.95</v>
@@ -939,19 +939,19 @@
         <v>4.74</v>
       </c>
       <c r="I11">
-        <v>26.02</v>
+        <v>10.47</v>
       </c>
       <c r="J11">
         <v>3.94</v>
       </c>
       <c r="K11">
-        <v>3.16</v>
+        <v>3.57</v>
       </c>
       <c r="L11">
         <v>4.74</v>
       </c>
       <c r="M11">
-        <v>24.3</v>
+        <v>5.08</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
@@ -971,7 +971,7 @@
         <v>1.45</v>
       </c>
       <c r="E12">
-        <v>27.23</v>
+        <v>13.19</v>
       </c>
       <c r="F12">
         <v>3.47</v>
@@ -980,22 +980,22 @@
         <v>12.68</v>
       </c>
       <c r="H12">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="I12">
-        <v>27.23</v>
+        <v>13.19</v>
       </c>
       <c r="J12">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="K12">
-        <v>3.7</v>
+        <v>4.02</v>
       </c>
       <c r="L12">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="M12">
-        <v>24.38</v>
+        <v>5.41</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -1015,7 +1015,7 @@
         <v>2.07</v>
       </c>
       <c r="E13">
-        <v>25.75</v>
+        <v>9.76</v>
       </c>
       <c r="F13">
         <v>3.95</v>
@@ -1024,22 +1024,22 @@
         <v>9.07</v>
       </c>
       <c r="H13">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="I13">
-        <v>25.75</v>
+        <v>9.76</v>
       </c>
       <c r="J13">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="K13">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="L13">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="M13">
-        <v>24.34</v>
+        <v>4.98</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
@@ -1059,7 +1059,7 @@
         <v>1.62</v>
       </c>
       <c r="E14">
-        <v>26.58</v>
+        <v>11.78</v>
       </c>
       <c r="F14">
         <v>3.41</v>
@@ -1068,22 +1068,22 @@
         <v>11.22</v>
       </c>
       <c r="H14">
-        <v>4.11</v>
+        <v>4.14</v>
       </c>
       <c r="I14">
-        <v>26.58</v>
+        <v>11.78</v>
       </c>
       <c r="J14">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="K14">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="L14">
-        <v>4.11</v>
+        <v>4.14</v>
       </c>
       <c r="M14">
-        <v>24.34</v>
+        <v>4.81</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
@@ -1103,7 +1103,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E15">
-        <v>237.97</v>
+        <v>236.78</v>
       </c>
       <c r="F15">
         <v>2.33</v>
@@ -1112,22 +1112,22 @@
         <v>236.75</v>
       </c>
       <c r="H15">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="I15">
-        <v>237.97</v>
+        <v>236.78</v>
       </c>
       <c r="J15">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="K15">
-        <v>5.54</v>
+        <v>4.95</v>
       </c>
       <c r="L15">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="M15">
-        <v>24.73</v>
+        <v>6.13</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
@@ -1147,7 +1147,7 @@
         <v>4.41</v>
       </c>
       <c r="E16">
-        <v>24.52</v>
+        <v>5.81</v>
       </c>
       <c r="F16">
         <v>5.95</v>
@@ -1156,22 +1156,22 @@
         <v>4.55</v>
       </c>
       <c r="H16">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
       <c r="I16">
-        <v>24.52</v>
+        <v>5.81</v>
       </c>
       <c r="J16">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L16">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
       <c r="M16">
-        <v>24.21</v>
+        <v>4.29</v>
       </c>
       <c r="N16" t="s">
         <v>27</v>
@@ -1191,7 +1191,7 @@
         <v>4.12</v>
       </c>
       <c r="E17">
-        <v>24.59</v>
+        <v>6.07</v>
       </c>
       <c r="F17">
         <v>5.79</v>
@@ -1200,22 +1200,22 @@
         <v>4.88</v>
       </c>
       <c r="H17">
-        <v>6.95</v>
+        <v>6.96</v>
       </c>
       <c r="I17">
-        <v>24.59</v>
+        <v>6.07</v>
       </c>
       <c r="J17">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="K17">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="L17">
-        <v>6.95</v>
+        <v>6.96</v>
       </c>
       <c r="M17">
-        <v>24.22</v>
+        <v>4.46</v>
       </c>
       <c r="N17" t="s">
         <v>28</v>
@@ -1235,7 +1235,7 @@
         <v>4.29</v>
       </c>
       <c r="E18">
-        <v>24.55</v>
+        <v>5.91</v>
       </c>
       <c r="F18">
         <v>5.88</v>
@@ -1244,22 +1244,22 @@
         <v>4.67</v>
       </c>
       <c r="H18">
-        <v>7.06</v>
+        <v>7.05</v>
       </c>
       <c r="I18">
-        <v>24.55</v>
+        <v>5.91</v>
       </c>
       <c r="J18">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="K18">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L18">
-        <v>7.06</v>
+        <v>7.05</v>
       </c>
       <c r="M18">
-        <v>24.21</v>
+        <v>4.35</v>
       </c>
       <c r="N18" t="s">
         <v>29</v>
@@ -1279,7 +1279,7 @@
         <v>4.57</v>
       </c>
       <c r="E19">
-        <v>24.5</v>
+        <v>5.7</v>
       </c>
       <c r="F19">
         <v>6.01</v>
@@ -1288,22 +1288,22 @@
         <v>4.4</v>
       </c>
       <c r="H19">
-        <v>7.24</v>
+        <v>7.26</v>
       </c>
       <c r="I19">
-        <v>24.5</v>
+        <v>5.7</v>
       </c>
       <c r="J19">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="K19">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="L19">
-        <v>7.24</v>
+        <v>7.26</v>
       </c>
       <c r="M19">
-        <v>24.2</v>
+        <v>4.32</v>
       </c>
       <c r="N19" t="s">
         <v>30</v>
@@ -1323,7 +1323,7 @@
         <v>4.47</v>
       </c>
       <c r="E20">
-        <v>24.51</v>
+        <v>5.76</v>
       </c>
       <c r="F20">
         <v>5.96</v>
@@ -1332,22 +1332,22 @@
         <v>4.48</v>
       </c>
       <c r="H20">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="I20">
-        <v>24.51</v>
+        <v>5.76</v>
       </c>
       <c r="J20">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="K20">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="L20">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="M20">
-        <v>24.2</v>
+        <v>4.24</v>
       </c>
       <c r="N20" t="s">
         <v>31</v>
@@ -1367,7 +1367,7 @@
         <v>4.69</v>
       </c>
       <c r="E21">
-        <v>24.48</v>
+        <v>5.64</v>
       </c>
       <c r="F21">
         <v>6.2</v>
@@ -1379,19 +1379,19 @@
         <v>7.44</v>
       </c>
       <c r="I21">
-        <v>24.48</v>
+        <v>5.64</v>
       </c>
       <c r="J21">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="K21">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="L21">
         <v>7.44</v>
       </c>
       <c r="M21">
-        <v>24.21</v>
+        <v>4.26</v>
       </c>
       <c r="N21" t="s">
         <v>32</v>
